--- a/input/scraper_input.xlsx
+++ b/input/scraper_input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>Liczebność</t>
   </si>
@@ -159,6 +159,120 @@
     <t>https://www.facebook.com/groups/muremzaziobro/</t>
   </si>
   <si>
+    <t>Czy szczepienia są bezpieczne?</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/czyszczepieniasabezpieczne/</t>
+  </si>
+  <si>
+    <t>Gazeta RDK Republika Demokracja Konstytucja Forum Obywatelskie</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/GazetaRDK/</t>
+  </si>
+  <si>
+    <t>Jasna Strona Mocy</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jasnastronamocyJSM/</t>
+  </si>
+  <si>
+    <t>Kobiety Lewicy</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KobietyLewicy/</t>
+  </si>
+  <si>
+    <t>Lemingopedia</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Lemingopedia/</t>
+  </si>
+  <si>
+    <t>Ludzie Przeciwko Obostrzeniom - Pokażmy ilu nas jest, Zaproś znajomych</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ludzieprzeciwobostrzeniom/</t>
+  </si>
+  <si>
+    <t>Marsz Niepodległości</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MarszNiepodleglosci/</t>
+  </si>
+  <si>
+    <t>Narodowy Protest Polaków</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Narodowy-Protest-Polak%C3%B3w-115498060170619/</t>
+  </si>
+  <si>
+    <t>Niezlomni.com</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Niezlomnicom-290401101107116/</t>
+  </si>
+  <si>
+    <t>Ogólnopolskie Stowarzyszenie Wiedzy o Szczepieniach STOP NOP</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/stowarzyszeniestopnop/</t>
+  </si>
+  <si>
+    <t>Ośrodek Dystrybucji Prestiżu i Pogardy</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/osrodek.dystrybucji/</t>
+  </si>
+  <si>
+    <t>Patrioci ze Stali</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Patrioci-ze-Stali-247659432824654/</t>
+  </si>
+  <si>
+    <t>Polska Ludzi Wolnych</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PolskaLudziWolnych/</t>
+  </si>
+  <si>
+    <t>Polska, Poland</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PL.Polska.Poland/</t>
+  </si>
+  <si>
+    <t>Polskie Towarzystwo Mediów Medycznych</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ptmmedycznych/</t>
+  </si>
+  <si>
+    <t>Powstrzymać lewactwo - Prawicowy internet</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/powstrzymac.lewactwo/</t>
+  </si>
+  <si>
+    <t>Prażona Cebula</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/prazonacebula/</t>
+  </si>
+  <si>
+    <t>Stowarzyszenie Prawo do Życia Prawda</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PrawoDoZyciaPrawda/</t>
+  </si>
+  <si>
+    <t>SokzBuraka</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sokzburaka/</t>
+  </si>
+  <si>
     <t>Głosujemy aby PiS wygrało wybory!!!</t>
   </si>
   <si>
@@ -295,6 +409,60 @@
   </si>
   <si>
     <t>https://www.facebook.com/groups/polskaliberalna/</t>
+  </si>
+  <si>
+    <t>TYLKO PiS</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/wlotys.usa/</t>
+  </si>
+  <si>
+    <t>Tygodnik Lisickiego</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TygodnikDoRzeczy/</t>
+  </si>
+  <si>
+    <t>Tygodnik NIE</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TygodnikNIE/</t>
+  </si>
+  <si>
+    <t>Ukrainiec NIE jest moim bratem</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/UprobanderowiecNieJMB/</t>
+  </si>
+  <si>
+    <t>vetomedia.pl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/vetopolska/</t>
+  </si>
+  <si>
+    <t>Świadome Plemię Polski</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%C5%9Awiadome-Plemi%C4%99-Polski-103040911481653/</t>
+  </si>
+  <si>
+    <t>Żelazna logika</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/zelaznalogika.net/</t>
+  </si>
+  <si>
+    <t>Żołnierze Chrystusa</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ZolnierzeChrystusa/</t>
+  </si>
+  <si>
+    <t>Zakątek Polityczny - ¡No Pasarán</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Zak%C4%85tek-Polityczny-No-Pasar%C3%A1n-859760530781911/</t>
   </si>
 </sst>
 </file>
@@ -1023,6 +1191,105 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C8"/>
@@ -1056,177 +1323,287 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13">
+      <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13">
         <v>19600.0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="7">
         <v>1.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="19">
+    <row r="13">
+      <c r="A13" s="19">
         <v>318000.0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19">
+      <c r="B13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19">
         <v>316000.0</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22">
+      <c r="B14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="22">
         <v>66200.0</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11">
+      <c r="B15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11">
         <v>64900.0</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11">
+      <c r="B16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11">
         <v>48700.0</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11">
+      <c r="B17" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11">
         <v>48200.0</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11">
+      <c r="B18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11">
         <v>38100.0</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23">
+      <c r="B19" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23">
         <v>58400.0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11">
+      <c r="B20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11">
         <v>24900.0</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11">
+      <c r="B21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11">
         <v>11300.0</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="22">
+      <c r="B22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="22">
         <v>4700.0</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B23" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="7">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C3"/>
-    <hyperlink r:id="rId2" ref="C4"/>
+    <hyperlink r:id="rId1" ref="C13"/>
+    <hyperlink r:id="rId2" ref="C14"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -1241,6 +1618,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="25.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1261,10 +1641,10 @@
         <v>33800.0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D2" s="7">
         <v>0.0</v>
@@ -1275,10 +1655,10 @@
         <v>20600.0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D3" s="7">
         <v>0.0</v>
@@ -1289,10 +1669,10 @@
         <v>11600.0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D4" s="7">
         <v>0.0</v>
@@ -1303,10 +1683,10 @@
         <v>5900.0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D5" s="7">
         <v>0.0</v>
@@ -1317,10 +1697,10 @@
         <v>5200.0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="D6" s="7">
         <v>0.0</v>
@@ -1331,10 +1711,10 @@
         <v>5600.0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D7" s="7">
         <v>0.0</v>
@@ -1345,10 +1725,10 @@
         <v>4200.0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
         <v>0.0</v>
@@ -1359,10 +1739,10 @@
         <v>223400.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7">
         <v>0.0</v>
@@ -1373,10 +1753,10 @@
         <v>54600.0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="D10" s="7">
         <v>0.0</v>
@@ -1387,10 +1767,10 @@
         <v>20600.0</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D11" s="7">
         <v>0.0</v>
@@ -1401,12 +1781,111 @@
         <v>271300.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D12" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="7">
         <v>0.0</v>
       </c>
     </row>
